--- a/熊六刀两两对比矩阵的副本 2 - 正式使用版（孙、程、郑）.xlsx
+++ b/熊六刀两两对比矩阵的副本 2 - 正式使用版（孙、程、郑）.xlsx
@@ -640,6 +640,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,6 +664,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,7 +680,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -682,6 +691,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,24 +709,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1017,43 +1017,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="63"/>
-      <c r="B1" s="60" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
       <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1065,7 +1065,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5">
@@ -1097,7 +1097,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="49" t="s">
         <v>48</v>
       </c>
@@ -1128,7 +1128,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="48" t="s">
         <v>49</v>
       </c>
@@ -1158,7 +1158,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="64" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1190,7 +1190,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="49" t="s">
         <v>45</v>
       </c>
@@ -1220,7 +1220,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="48" t="s">
         <v>53</v>
       </c>
@@ -1250,7 +1250,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="64" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1273,7 +1273,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="49" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="48" t="s">
         <v>54</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="64" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1346,7 +1346,7 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="49" t="s">
         <v>16</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="48" t="s">
         <v>55</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1420,7 +1420,7 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="49" t="s">
         <v>46</v>
       </c>
@@ -1441,7 +1441,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="48" t="s">
         <v>54</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="64" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="5">
@@ -1485,7 +1485,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="49" t="s">
         <v>48</v>
       </c>
@@ -1506,7 +1506,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="48" t="s">
         <v>53</v>
       </c>
@@ -1527,46 +1527,46 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
-      <c r="B23" s="60" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="60" t="s">
+      <c r="C23" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="64"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="6">
@@ -1589,7 +1589,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="52">
         <v>1</v>
       </c>
@@ -1610,7 +1610,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="8">
         <v>1</v>
       </c>
@@ -1631,7 +1631,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="64" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="6">
@@ -1654,7 +1654,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="52">
         <v>2</v>
       </c>
@@ -1675,7 +1675,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="8">
         <v>2</v>
       </c>
@@ -1696,7 +1696,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="64" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="6">
@@ -1719,7 +1719,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="52">
         <v>0.5</v>
       </c>
@@ -1740,7 +1740,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="8">
         <v>0.33333333333333331</v>
       </c>
@@ -1761,7 +1761,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="64" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="6">
@@ -1784,7 +1784,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="52">
         <v>0.33333333333333331</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="8">
         <v>0.25</v>
       </c>
@@ -1826,7 +1826,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="6">
@@ -1849,7 +1849,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="52">
         <v>3</v>
       </c>
@@ -1870,7 +1870,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="8">
         <v>0.33333333333333331</v>
       </c>
@@ -1891,7 +1891,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="64" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="6">
@@ -1914,7 +1914,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="52">
         <v>1</v>
       </c>
@@ -1935,7 +1935,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="8">
         <v>2</v>
       </c>
@@ -1957,11 +1957,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="F23:F25"/>
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="A26:A28"/>
@@ -1971,18 +1978,11 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="E23:E25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2008,36 +2008,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="63"/>
-      <c r="B1" s="60" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="69" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="74" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="70"/>
@@ -2069,14 +2069,14 @@
       <c r="AA2" s="70"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="10" t="s">
         <v>24</v>
       </c>
@@ -2133,7 +2133,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
@@ -2228,7 +2228,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="52">
         <v>1</v>
       </c>
@@ -2321,7 +2321,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="8">
         <v>1</v>
       </c>
@@ -2414,7 +2414,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="64" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="6">
@@ -2509,7 +2509,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="52">
         <v>2</v>
       </c>
@@ -2602,7 +2602,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="8">
         <v>2</v>
       </c>
@@ -2695,7 +2695,7 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="64" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="6">
@@ -2721,7 +2721,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="52">
         <v>0.5</v>
       </c>
@@ -2740,14 +2740,14 @@
       <c r="G11" s="52">
         <v>2</v>
       </c>
-      <c r="P11" s="66" t="s">
+      <c r="P11" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="68"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="73"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="8">
         <v>0.33333333333333331</v>
       </c>
@@ -2771,7 +2771,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="64" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="6">
@@ -2792,8 +2792,8 @@
       <c r="G13" s="6">
         <v>0.125</v>
       </c>
-      <c r="I13" s="60"/>
-      <c r="J13" s="69" t="s">
+      <c r="I13" s="64"/>
+      <c r="J13" s="74" t="s">
         <v>0</v>
       </c>
       <c r="K13" s="70"/>
@@ -2825,7 +2825,7 @@
       <c r="AA13" s="70"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="52">
         <v>0.33333333333333331</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="G14" s="52">
         <v>0.5</v>
       </c>
-      <c r="I14" s="62"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="10" t="s">
         <v>24</v>
       </c>
@@ -2919,7 +2919,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="8">
         <v>0.25</v>
       </c>
@@ -3021,7 +3021,7 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6">
@@ -3125,7 +3125,7 @@
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="52">
         <v>3</v>
       </c>
@@ -3227,7 +3227,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="8">
         <v>0.33333333333333331</v>
       </c>
@@ -3329,7 +3329,7 @@
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="64" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="6">
@@ -3433,7 +3433,7 @@
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="52">
         <v>1</v>
       </c>
@@ -3535,7 +3535,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="8">
         <v>2</v>
       </c>
@@ -3575,11 +3575,11 @@
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AC25" s="66" t="s">
+      <c r="AC25" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AD25" s="67"/>
-      <c r="AE25" s="68"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="73"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AD26" s="1" t="s">
@@ -3603,11 +3603,11 @@
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AC29" s="66" t="s">
+      <c r="AC29" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="AD29" s="67"/>
-      <c r="AE29" s="68"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="73"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AD30" s="1" t="s">
@@ -3630,20 +3630,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AC25:AE25"/>
     <mergeCell ref="AC29:AE29"/>
     <mergeCell ref="A19:A21"/>
@@ -3660,6 +3646,20 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3682,10 +3682,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="70" t="s">
         <v>33</v>
       </c>
@@ -3716,15 +3716,15 @@
       </c>
       <c r="U1" s="70"/>
       <c r="V1" s="70"/>
-      <c r="W1" s="60" t="s">
+      <c r="W1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="77" t="s">
+      <c r="X1" s="75" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="78"/>
+      <c r="A2" s="79"/>
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
       <c r="D2" s="81"/>
@@ -3782,11 +3782,11 @@
       <c r="V2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="61"/>
-      <c r="X2" s="77"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="75"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="79"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="46" t="s">
         <v>42</v>
       </c>
@@ -3850,8 +3850,8 @@
       <c r="V3" s="44">
         <v>1.0942862345739544</v>
       </c>
-      <c r="W3" s="62"/>
-      <c r="X3" s="77"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="75"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
@@ -3866,46 +3866,46 @@
       <c r="D4" s="41">
         <v>0.70599111907997059</v>
       </c>
-      <c r="E4" s="74">
-        <v>1</v>
-      </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77">
+      <c r="E4" s="82">
+        <v>1</v>
+      </c>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="75">
         <f>($H$3-D4)/((C4-D4)-($I$3-$H$3))</f>
         <v>1.043760835613335</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77">
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75">
         <f>($K$3-D4)/((C4-D4)-($L$3-$K$3))</f>
         <v>1.2830839559025315</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77">
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75">
         <f>($N$3-D4)/((C4-D4)-($O$3-$N$3))</f>
         <v>1.3259317990936887</v>
       </c>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77">
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75">
         <f>($Q$3-D4)/((C4-D4)-($R$3-$Q$3))</f>
         <v>1.1275952157774594</v>
       </c>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77">
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75">
         <f>($T$3-D4)/((C4-D4)-($U$3-$T$3))</f>
         <v>0.90975629381777234</v>
       </c>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
       <c r="W4" s="45">
         <f>MIN(E4:V4)</f>
         <v>0.90975629381777234</v>
       </c>
-      <c r="X4" s="84">
+      <c r="X4" s="63">
         <f>W4/$W$10</f>
         <v>0.21135356345387857</v>
       </c>
@@ -3923,47 +3923,47 @@
       <c r="D5" s="44">
         <v>0.56479289526397647</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="75">
         <f>($E$3-D5)/((C5-D5)-($F$3-$E$3))</f>
         <v>0.94864638349185404</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77">
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75">
         <f t="shared" ref="H5:H9" si="0">($H$3-D5)/((C5-D5)-($I$3-$H$3))</f>
         <v>1</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77">
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75">
         <f t="shared" ref="K5:K9" si="1">($K$3-D5)/((C5-D5)-($L$3-$K$3))</f>
         <v>1.2976966768210805</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77">
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75">
         <f t="shared" ref="N5:N9" si="2">($N$3-D5)/((C5-D5)-($O$3-$N$3))</f>
         <v>1.3535382303818417</v>
       </c>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77">
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75">
         <f t="shared" ref="Q5:Q9" si="3">($Q$3-D5)/((C5-D5)-($R$3-$Q$3))</f>
         <v>1.1027354875051152</v>
       </c>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77">
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75">
         <f t="shared" ref="T5:T9" si="4">($T$3-D5)/((C5-D5)-($U$3-$T$3))</f>
         <v>0.84830252794306171</v>
       </c>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45">
         <f t="shared" ref="W5:W9" si="5">MIN(E5:V5)</f>
         <v>0.84830252794306171</v>
       </c>
-      <c r="X5" s="84">
+      <c r="X5" s="63">
         <f t="shared" ref="X5:X9" si="6">W5/$W$10</f>
         <v>0.19707669338049372</v>
       </c>
@@ -3981,47 +3981,47 @@
       <c r="D6" s="44">
         <v>0.22944711370099044</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="75">
         <f t="shared" ref="E6:E9" si="7">($E$3-D6)/((C6-D6)-($F$3-$E$3))</f>
         <v>0.50409704424611845</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77">
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75">
         <f t="shared" si="0"/>
         <v>0.55371467033367405</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77">
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77">
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75">
         <f t="shared" si="2"/>
         <v>1.091195666337172</v>
       </c>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77">
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75">
         <f t="shared" si="3"/>
         <v>0.71326377047477485</v>
       </c>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77">
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75">
         <f t="shared" si="4"/>
         <v>0.4454067763717065</v>
       </c>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
       <c r="W6" s="45">
         <f t="shared" si="5"/>
         <v>0.4454067763717065</v>
       </c>
-      <c r="X6" s="84">
+      <c r="X6" s="63">
         <f t="shared" si="6"/>
         <v>0.10347640352958221</v>
       </c>
@@ -4039,47 +4039,47 @@
       <c r="D7" s="44">
         <v>0.17061452044432621</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="75">
         <f t="shared" si="7"/>
         <v>0.35945875484996886</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77">
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75">
         <f t="shared" si="0"/>
         <v>0.40220948926373368</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75">
         <f t="shared" si="1"/>
         <v>0.89516005667987764</v>
       </c>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77">
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75">
         <f t="shared" si="2"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77">
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75">
         <f t="shared" si="3"/>
         <v>0.581492661072887</v>
       </c>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77">
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75">
         <f t="shared" si="4"/>
         <v>0.32887126154057111</v>
       </c>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
       <c r="W7" s="45">
         <f t="shared" si="5"/>
         <v>0.32887126154057111</v>
       </c>
-      <c r="X7" s="84">
+      <c r="X7" s="63">
         <f t="shared" si="6"/>
         <v>7.6403003218018878E-2</v>
       </c>
@@ -4097,47 +4097,47 @@
       <c r="D8" s="44">
         <v>0.52949333930997788</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="75">
         <f t="shared" si="7"/>
         <v>0.85776682088128497</v>
       </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77">
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75">
         <f t="shared" si="0"/>
         <v>0.90313687747952398</v>
       </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77">
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75">
         <f t="shared" si="1"/>
         <v>1.1750543251272032</v>
       </c>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77">
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75">
         <f t="shared" si="2"/>
         <v>1.2238620584984272</v>
       </c>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77">
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75">
         <f t="shared" si="3"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77">
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75">
         <f t="shared" si="4"/>
         <v>0.77209160110511688</v>
       </c>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
       <c r="W8" s="45">
         <f t="shared" si="5"/>
         <v>0.77209160110511688</v>
       </c>
-      <c r="X8" s="84">
+      <c r="X8" s="63">
         <f t="shared" si="6"/>
         <v>0.17937145619688721</v>
       </c>
@@ -4155,47 +4155,47 @@
       <c r="D9" s="44">
         <v>1.0942862345739544</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="75">
         <f t="shared" si="7"/>
         <v>1.0675272941152336</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77">
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75">
         <f t="shared" si="0"/>
         <v>1.0978644999177065</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77">
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75">
         <f t="shared" si="1"/>
         <v>1.251089856051782</v>
       </c>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77">
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75">
         <f t="shared" si="2"/>
         <v>1.2766833680424223</v>
       </c>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77">
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75">
         <f t="shared" si="3"/>
         <v>1.1528410248142513</v>
       </c>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77">
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
       <c r="W9" s="45">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X9" s="84">
+      <c r="X9" s="63">
         <f t="shared" si="6"/>
         <v>0.2323188802211392</v>
       </c>
@@ -4204,46 +4204,17 @@
       <c r="V10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="W10" s="83">
+      <c r="W10" s="62">
         <f>SUM(W4:W9)</f>
         <v>4.3044284607782295</v>
       </c>
-      <c r="X10" s="84">
+      <c r="X10" s="63">
         <f>SUM(X4:X9)</f>
         <v>0.99999999999999978</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T9:V9"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="T7:V7"/>
@@ -4260,6 +4231,35 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4282,22 +4282,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="58"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="61" t="s">
         <v>38</v>
       </c>
       <c r="H1" s="55" t="s">
@@ -4462,22 +4462,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="58"/>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="82" t="s">
+      <c r="G11" s="61" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="55" t="s">
